--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-ja-20181106-2139X\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B1DA0-617F-4CA5-BFBE-4F7351C43821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04861D1B-D7DB-4AEF-AA06-9315F399C95B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="144" windowWidth="22596" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="96" windowWidth="22596" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -1814,14 +1814,15 @@
     <t>1.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
     <t>テスト手順</t>
     <rPh sb="3" eb="5">
       <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -2734,7 +2735,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2970,20 +2971,11 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3029,77 +3021,98 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3138,18 +3151,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3162,52 +3163,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -4525,48 +4551,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="136"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
@@ -4576,20 +4602,20 @@
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="23" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="106" t="str">
+      <c r="C12" s="121"/>
+      <c r="D12" s="101" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
 MASVS_VERSION,
@@ -4598,20 +4624,20 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="23" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="106" t="str">
+      <c r="C14" s="121"/>
+      <c r="D14" s="101" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
@@ -4620,69 +4646,69 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="132"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="128"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="128"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="128"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="23" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="20" t="s">
@@ -4699,37 +4725,37 @@
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="128"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="20" t="s">
@@ -4746,37 +4772,37 @@
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="128"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="128"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="23"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="130"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="135"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="20" t="s">
@@ -4786,100 +4812,97 @@
       <c r="D38" s="22"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="141"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="123"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="123"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="123"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="26"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="123"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="27"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="123"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="124"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="123"/>
+      <c r="C46" s="142"/>
       <c r="D46" s="26"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="123"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="26"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="123"/>
+      <c r="C48" s="142"/>
       <c r="D48" s="26"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="123"/>
+      <c r="C49" s="142"/>
       <c r="D49" s="27"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="123"/>
+      <c r="C50" s="142"/>
       <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4894,16 +4917,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4949,11 +4975,11 @@
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="32"/>
@@ -4968,16 +4994,16 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="156" t="s">
+      <c r="G6" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
-      <c r="V6" s="156" t="s">
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
+      <c r="V6" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="157"/>
-      <c r="X6" s="158"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="160"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="34"/>
@@ -4992,18 +5018,18 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="147">
+      <c r="G8" s="149">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="V8" s="147">
+      <c r="H8" s="150"/>
+      <c r="I8" s="151"/>
+      <c r="V8" s="149">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="148"/>
-      <c r="X8" s="149"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="151"/>
     </row>
     <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="33"/>
@@ -5011,12 +5037,12 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="154"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="34"/>
@@ -5024,12 +5050,12 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="154"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="34"/>
@@ -5037,19 +5063,19 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="157"/>
     </row>
     <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B13" s="35"/>
@@ -5073,11 +5099,11 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" s="35"/>
@@ -5125,18 +5151,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="160" t="s">
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="162"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="147"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.5">
       <c r="D42" s="39" t="s">
@@ -5462,6 +5488,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -5469,8 +5497,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="F14">
@@ -5534,29 +5560,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="21.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="102" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="50" t="s">
@@ -5571,11 +5597,11 @@
       <c r="G3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="52" t="s">
         <v>185</v>
       </c>
@@ -5584,7 +5610,7 @@
       <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="54" t="s">
         <v>186</v>
       </c>
@@ -5597,10 +5623,10 @@
       <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="104" t="s">
         <v>304</v>
       </c>
       <c r="D5" s="57" t="s">
@@ -5613,28 +5639,28 @@
         <v>3</v>
       </c>
       <c r="G5" s="60"/>
-      <c r="H5" s="168" t="str">
+      <c r="H5" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="168" t="str">
+      <c r="I5" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),
 "Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="J5" s="169"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="104" t="s">
         <v>305</v>
       </c>
       <c r="D6" s="57" t="s">
@@ -5647,25 +5673,25 @@
         <v>3</v>
       </c>
       <c r="G6" s="60"/>
-      <c r="H6" s="168" t="str">
+      <c r="H6" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="170" t="str">
+      <c r="I6" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J6" s="171"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>306</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -5678,22 +5704,22 @@
         <v>3</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="168" t="str">
+      <c r="H7" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="104" t="s">
         <v>307</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -5706,22 +5732,22 @@
         <v>3</v>
       </c>
       <c r="G8" s="60"/>
-      <c r="H8" s="168" t="str">
+      <c r="H8" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
 "Identifying Sensitive Data")</f>
         <v>Identifying Sensitive Data</v>
       </c>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="104" t="s">
         <v>308</v>
       </c>
       <c r="D9" s="57" t="s">
@@ -5734,22 +5760,22 @@
       <c r="G9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="168" t="str">
+      <c r="H9" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
 "Environmental Information")</f>
         <v>Environmental Information</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
       <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="104" t="s">
         <v>309</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -5762,22 +5788,22 @@
       <c r="G10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="168" t="str">
+      <c r="H10" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
 "Mapping the Application")</f>
         <v>Mapping the Application</v>
       </c>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
       <c r="K10" s="62"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D11" s="57" t="s">
@@ -5790,18 +5816,18 @@
       <c r="G11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="168" t="str">
+      <c r="H11" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-insecure-configuration-of-instant-apps-mstg-arch-1-mstg-arch-7"),"Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)")</f>
         <v>Testing for insecure Configuration of Instant Apps (MSTG-ARCH-1, MSTG-ARCH-7)</v>
       </c>
-      <c r="I11" s="170" t="str">
+      <c r="I11" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="J11" s="168" t="str">
+      <c r="J11" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
@@ -5811,10 +5837,10 @@
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="104" t="s">
         <v>311</v>
       </c>
       <c r="D12" s="57" t="s">
@@ -5827,22 +5853,22 @@
       <c r="G12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="168" t="str">
+      <c r="H12" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
 "Cryptographic policy")</f>
         <v>Cryptographic policy</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="104" t="s">
         <v>312</v>
       </c>
       <c r="D13" s="57" t="s">
@@ -5855,22 +5881,22 @@
       <c r="G13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="168" t="str">
+      <c r="H13" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
 "Testing enforced updating (MSTG-ARCH-9)")</f>
         <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="105" t="s">
         <v>313</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -5883,38 +5909,38 @@
       <c r="G14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="168" t="str">
+      <c r="H14" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
 "Security Testing and the SDLC")</f>
         <v>Security Testing and the SDLC</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="111"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="66" t="s">
         <v>187</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="104" t="s">
         <v>314</v>
       </c>
       <c r="D16" s="57" t="s">
@@ -5927,22 +5953,22 @@
         <v>3</v>
       </c>
       <c r="G16" s="60"/>
-      <c r="H16" s="173" t="str">
+      <c r="H16" s="170" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="174" t="str">
+      <c r="I16" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="J16" s="169"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="104" t="s">
         <v>315</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -5951,19 +5977,19 @@
       <c r="E17" s="58"/>
       <c r="F17" s="59"/>
       <c r="G17" s="60"/>
-      <c r="H17" s="175" t="str">
+      <c r="H17" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
       <c r="K17" s="70"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="104" t="s">
         <v>316</v>
       </c>
       <c r="D18" s="57" t="s">
@@ -5976,19 +6002,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="60"/>
-      <c r="H18" s="174" t="str">
+      <c r="H18" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3"),"Testing Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Testing Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
       <c r="K18" s="62"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="104" t="s">
         <v>317</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -6001,19 +6027,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="60"/>
-      <c r="H19" s="175" t="str">
+      <c r="H19" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
       <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="104" t="s">
         <v>318</v>
       </c>
       <c r="D20" s="57" t="s">
@@ -6026,19 +6052,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="60"/>
-      <c r="H20" s="175" t="str">
+      <c r="H20" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)")</f>
         <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
       <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="104" t="s">
         <v>319</v>
       </c>
       <c r="D21" s="57" t="s">
@@ -6051,19 +6077,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="60"/>
-      <c r="H21" s="175" t="str">
+      <c r="H21" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
       <c r="K21" s="62"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="104" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="57" t="s">
@@ -6076,19 +6102,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="174" t="str">
+      <c r="H22" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosure Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
       <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="104" t="s">
         <v>321</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -6101,19 +6127,19 @@
       <c r="G23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="174" t="str">
+      <c r="H23" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="104" t="s">
         <v>322</v>
       </c>
       <c r="D24" s="57" t="s">
@@ -6126,19 +6152,19 @@
       <c r="G24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="174" t="str">
+      <c r="H24" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9"),"Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)")</f>
         <v>Finding Sensitive Information in Auto-Generated Screenshots (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
       <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="104" t="s">
         <v>323</v>
       </c>
       <c r="D25" s="57" t="s">
@@ -6151,19 +6177,19 @@
       <c r="G25" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="174" t="str">
+      <c r="H25" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data-mstg-storage-10"),"Checking Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Checking Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
       <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="104" t="s">
         <v>324</v>
       </c>
       <c r="D26" s="57" t="s">
@@ -6176,22 +6202,22 @@
       <c r="G26" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="174" t="str">
+      <c r="H26" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy-mstg-storage-11"),"Testing the Device-Access-Security Policy (MSTG-STORAGE-11)")</f>
         <v>Testing the Device-Access-Security Policy (MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="170" t="str">
+      <c r="I26" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="J26" s="169"/>
+      <c r="J26" s="166"/>
       <c r="K26" s="62"/>
     </row>
     <row r="27" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="104" t="s">
         <v>325</v>
       </c>
       <c r="D27" s="57" t="s">
@@ -6204,35 +6230,35 @@
       <c r="G27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="176" t="str">
+      <c r="H27" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
       <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="111"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="66" t="s">
         <v>189</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="104" t="s">
         <v>326</v>
       </c>
       <c r="D29" s="57" t="s">
@@ -6245,22 +6271,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="60"/>
-      <c r="H29" s="174" t="str">
+      <c r="H29" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="174" t="str">
+      <c r="I29" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J29" s="169"/>
+      <c r="J29" s="166"/>
       <c r="K29" s="62"/>
     </row>
     <row r="30" spans="2:11" ht="38.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="104" t="s">
         <v>327</v>
       </c>
       <c r="D30" s="57" t="s">
@@ -6273,22 +6299,22 @@
         <v>3</v>
       </c>
       <c r="G30" s="60"/>
-      <c r="H30" s="174" t="str">
+      <c r="H30" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="175" t="str">
+      <c r="I30" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J30" s="169"/>
+      <c r="J30" s="166"/>
       <c r="K30" s="62"/>
     </row>
     <row r="31" spans="2:11" ht="38.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="104" t="s">
         <v>328</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -6301,22 +6327,22 @@
         <v>3</v>
       </c>
       <c r="G31" s="60"/>
-      <c r="H31" s="175" t="str">
+      <c r="H31" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I31" s="174" t="str">
+      <c r="I31" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3"),"Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Common Configuration Issues (MSTG-CRYPTO-1, MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="J31" s="169"/>
+      <c r="J31" s="166"/>
       <c r="K31" s="62"/>
     </row>
     <row r="32" spans="2:11" ht="38.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="104" t="s">
         <v>329</v>
       </c>
       <c r="D32" s="57" t="s">
@@ -6329,22 +6355,22 @@
         <v>3</v>
       </c>
       <c r="G32" s="60"/>
-      <c r="H32" s="174" t="str">
+      <c r="H32" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="175" t="str">
+      <c r="I32" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4"),"Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)")</f>
         <v>Testing the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2, MSTG-CRYPTO-3 and MSTG-CRYPTO-4)</v>
       </c>
-      <c r="J32" s="169"/>
+      <c r="J32" s="166"/>
       <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="104" t="s">
         <v>331</v>
       </c>
       <c r="D33" s="57" t="s">
@@ -6357,19 +6383,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="60"/>
-      <c r="H33" s="174" t="str">
+      <c r="H33" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management-mstg-storage-1-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-STORAGE-1, MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
       <c r="K33" s="62"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="104" t="s">
         <v>330</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -6382,35 +6408,35 @@
         <v>3</v>
       </c>
       <c r="G34" s="60"/>
-      <c r="H34" s="174" t="str">
+      <c r="H34" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6"),"Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v>Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
       <c r="K34" s="62"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="111"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="66" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="68"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
       <c r="K35" s="69"/>
     </row>
     <row r="36" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="104" t="s">
         <v>332</v>
       </c>
       <c r="D36" s="72" t="s">
@@ -6423,25 +6449,25 @@
         <v>3</v>
       </c>
       <c r="G36" s="60"/>
-      <c r="H36" s="174" t="str">
+      <c r="H36" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11"),"Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)")</f>
         <v>Testing Confirm Credentials (MSTG-AUTH-1 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I36" s="170" t="str">
+      <c r="I36" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J36" s="170" t="str">
+      <c r="J36" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
       <c r="K36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="104" t="s">
         <v>333</v>
       </c>
       <c r="D37" s="72" t="s">
@@ -6454,19 +6480,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="60"/>
-      <c r="H37" s="174" t="str">
+      <c r="H37" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
       <c r="K37" s="62"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="104" t="s">
         <v>334</v>
       </c>
       <c r="D38" s="72" t="s">
@@ -6479,23 +6505,23 @@
         <v>3</v>
       </c>
       <c r="G38" s="60"/>
-      <c r="H38" s="175" t="str">
+      <c r="H38" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="170" t="str">
+      <c r="I38" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="169"/>
+      <c r="J38" s="166"/>
       <c r="K38" s="62"/>
       <c r="M38" s="73"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="104" t="s">
         <v>335</v>
       </c>
       <c r="D39" s="72" t="s">
@@ -6504,20 +6530,20 @@
       <c r="E39" s="58"/>
       <c r="F39" s="59"/>
       <c r="G39" s="60"/>
-      <c r="H39" s="174" t="str">
+      <c r="H39" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
       <c r="K39" s="62"/>
       <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="104" t="s">
         <v>336</v>
       </c>
       <c r="D40" s="72" t="s">
@@ -6530,19 +6556,19 @@
         <v>3</v>
       </c>
       <c r="G40" s="60"/>
-      <c r="H40" s="174" t="str">
+      <c r="H40" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
       <c r="K40" s="62"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="104" t="s">
         <v>337</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -6555,22 +6581,22 @@
         <v>3</v>
       </c>
       <c r="G41" s="60"/>
-      <c r="H41" s="174" t="str">
+      <c r="H41" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="170" t="str">
+      <c r="I41" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="169"/>
+      <c r="J41" s="166"/>
       <c r="K41" s="62"/>
     </row>
     <row r="42" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="104" t="s">
         <v>338</v>
       </c>
       <c r="D42" s="72" t="s">
@@ -6583,19 +6609,19 @@
         <v>3</v>
       </c>
       <c r="G42" s="60"/>
-      <c r="H42" s="174" t="str">
+      <c r="H42" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
       <c r="K42" s="74"/>
     </row>
     <row r="43" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="104" t="s">
         <v>339</v>
       </c>
       <c r="D43" s="72" t="s">
@@ -6608,19 +6634,19 @@
       <c r="G43" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="174" t="str">
+      <c r="H43" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8"),"Testing Biometric Authentication (MSTG-AUTH-8)")</f>
         <v>Testing Biometric Authentication (MSTG-AUTH-8)</v>
       </c>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
       <c r="K43" s="62"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="104" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="72" t="s">
@@ -6633,19 +6659,19 @@
       <c r="G44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="174" t="str">
+      <c r="H44" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
       <c r="K44" s="62"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="104" t="s">
         <v>341</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -6658,19 +6684,19 @@
       <c r="G45" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="174" t="str">
+      <c r="H45" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="169"/>
-      <c r="J45" s="169"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="62"/>
     </row>
     <row r="46" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="104" t="s">
         <v>342</v>
       </c>
       <c r="D46" s="72" t="s">
@@ -6683,35 +6709,35 @@
       <c r="G46" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="178" t="str">
+      <c r="H46" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),"Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="62"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="111"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="66" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="67"/>
       <c r="F47" s="68"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="172"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="104" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="72" t="s">
@@ -6724,19 +6750,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="60"/>
-      <c r="H48" s="174" t="str">
+      <c r="H48" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="169"/>
-      <c r="J48" s="169"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
       <c r="K48" s="62"/>
     </row>
     <row r="49" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="104" t="s">
         <v>344</v>
       </c>
       <c r="D49" s="72" t="s">
@@ -6749,19 +6775,19 @@
         <v>3</v>
       </c>
       <c r="G49" s="60"/>
-      <c r="H49" s="174" t="str">
+      <c r="H49" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="169"/>
-      <c r="J49" s="169"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
       <c r="K49" s="62"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="104" t="s">
         <v>345</v>
       </c>
       <c r="D50" s="72" t="s">
@@ -6774,19 +6800,19 @@
         <v>3</v>
       </c>
       <c r="G50" s="60"/>
-      <c r="H50" s="174" t="str">
+      <c r="H50" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3"),"Testing Endpoint Identify Verification (MSTG-NETWORK-3)")</f>
         <v>Testing Endpoint Identify Verification (MSTG-NETWORK-3)</v>
       </c>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="75"/>
     </row>
     <row r="51" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="109" t="s">
+      <c r="C51" s="104" t="s">
         <v>346</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -6799,22 +6825,22 @@
       <c r="G51" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="174" t="str">
+      <c r="H51" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="174" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration settings (MSTG-NETWORK-4)")</f>
-        <v>Testing the Network Security Configuration settings (MSTG-NETWORK-4)</v>
-      </c>
-      <c r="J51" s="169"/>
+      <c r="I51" s="171" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-network-security-configuration-settings-mstg-network-4"),"Testing the Network Security Configuration Settings (MSTG-NETWORK-4)")</f>
+        <v>Testing the Network Security Configuration Settings (MSTG-NETWORK-4)</v>
+      </c>
+      <c r="J51" s="166"/>
       <c r="K51" s="62"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="104" t="s">
         <v>347</v>
       </c>
       <c r="D52" s="72" t="s">
@@ -6827,19 +6853,19 @@
       <c r="G52" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="174" t="str">
+      <c r="H52" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
       <c r="K52" s="62"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="104" t="s">
         <v>348</v>
       </c>
       <c r="D53" s="72" t="s">
@@ -6852,35 +6878,35 @@
       <c r="G53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="174" t="str">
+      <c r="H53" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6"),"Testing the Security Provider (MSTG-NETWORK-6)")</f>
         <v>Testing the Security Provider (MSTG-NETWORK-6)</v>
       </c>
-      <c r="I53" s="169"/>
-      <c r="J53" s="169"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
       <c r="K53" s="62"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="111"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="66" t="s">
         <v>192</v>
       </c>
       <c r="E54" s="67"/>
       <c r="F54" s="68"/>
       <c r="G54" s="67"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="172"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="169"/>
       <c r="K54" s="69"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="109" t="s">
+      <c r="C55" s="104" t="s">
         <v>349</v>
       </c>
       <c r="D55" s="72" t="s">
@@ -6893,19 +6919,19 @@
         <v>3</v>
       </c>
       <c r="G55" s="60"/>
-      <c r="H55" s="174" t="str">
+      <c r="H55" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
       <c r="K55" s="62"/>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="104" t="s">
         <v>350</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -6918,22 +6944,22 @@
         <v>3</v>
       </c>
       <c r="G56" s="60"/>
-      <c r="H56" s="174" t="str">
+      <c r="H56" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-injection-flaws-mstg-platform-2"),"Testing for Injection Flaws (MSTG-PLATFORM-2)")</f>
         <v>Testing for Injection Flaws (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="174" t="str">
+      <c r="I56" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#testing-for-fragment-injection-mstg-platform-2"),"Testing for Fragment Injection (MSTG-PLATFORM-2)")</f>
         <v>Testing for Fragment Injection (MSTG-PLATFORM-2)</v>
       </c>
-      <c r="J56" s="169"/>
+      <c r="J56" s="166"/>
       <c r="K56" s="62"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="104" t="s">
         <v>351</v>
       </c>
       <c r="D57" s="72" t="s">
@@ -6946,19 +6972,19 @@
         <v>3</v>
       </c>
       <c r="G57" s="60"/>
-      <c r="H57" s="174" t="str">
+      <c r="H57" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
       <c r="K57" s="62"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="109" t="s">
+      <c r="C58" s="104" t="s">
         <v>352</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -6971,19 +6997,19 @@
         <v>3</v>
       </c>
       <c r="G58" s="60"/>
-      <c r="H58" s="174" t="str">
+      <c r="H58" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),"Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="169"/>
-      <c r="J58" s="169"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
       <c r="K58" s="62"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="104" t="s">
         <v>353</v>
       </c>
       <c r="D59" s="72" t="s">
@@ -6996,19 +7022,19 @@
         <v>3</v>
       </c>
       <c r="G59" s="60"/>
-      <c r="H59" s="174" t="str">
+      <c r="H59" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5"),"Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing JavaScript Execution in WebViews (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="169"/>
-      <c r="J59" s="169"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
       <c r="K59" s="62"/>
     </row>
     <row r="60" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="109" t="s">
+      <c r="C60" s="104" t="s">
         <v>354</v>
       </c>
       <c r="D60" s="72" t="s">
@@ -7021,19 +7047,19 @@
         <v>3</v>
       </c>
       <c r="G60" s="60"/>
-      <c r="H60" s="174" t="str">
+      <c r="H60" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="169"/>
-      <c r="J60" s="169"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
       <c r="K60" s="62"/>
     </row>
     <row r="61" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="104" t="s">
         <v>355</v>
       </c>
       <c r="D61" s="72" t="s">
@@ -7046,19 +7072,19 @@
         <v>3</v>
       </c>
       <c r="G61" s="60"/>
-      <c r="H61" s="174" t="str">
+      <c r="H61" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Java Objects Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="166"/>
       <c r="K61" s="62"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="109" t="s">
+      <c r="C62" s="104" t="s">
         <v>356</v>
       </c>
       <c r="D62" s="72" t="s">
@@ -7071,35 +7097,35 @@
         <v>3</v>
       </c>
       <c r="G62" s="60"/>
-      <c r="H62" s="174" t="str">
+      <c r="H62" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
       <c r="K62" s="62"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="111"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="66" t="s">
         <v>193</v>
       </c>
       <c r="E63" s="67"/>
       <c r="F63" s="68"/>
       <c r="G63" s="67"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
       <c r="K63" s="69"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="104" t="s">
         <v>357</v>
       </c>
       <c r="D64" s="57" t="s">
@@ -7112,19 +7138,19 @@
         <v>3</v>
       </c>
       <c r="G64" s="60"/>
-      <c r="H64" s="174" t="str">
+      <c r="H64" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure That the App is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure That the App is Properly Signed (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="166"/>
       <c r="K64" s="62"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="109" t="s">
+      <c r="C65" s="104" t="s">
         <v>358</v>
       </c>
       <c r="D65" s="57" t="s">
@@ -7137,19 +7163,19 @@
         <v>3</v>
       </c>
       <c r="G65" s="60"/>
-      <c r="H65" s="174" t="str">
+      <c r="H65" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2"),"Testing Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Testing Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="166"/>
       <c r="K65" s="62"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="109" t="s">
+      <c r="C66" s="104" t="s">
         <v>359</v>
       </c>
       <c r="D66" s="57" t="s">
@@ -7162,19 +7188,19 @@
         <v>3</v>
       </c>
       <c r="G66" s="60"/>
-      <c r="H66" s="174" t="str">
+      <c r="H66" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3"),"Testing for Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Testing for Debugging Symbols (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="169"/>
-      <c r="J66" s="169"/>
+      <c r="I66" s="166"/>
+      <c r="J66" s="166"/>
       <c r="K66" s="62"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="109" t="s">
+      <c r="C67" s="104" t="s">
         <v>360</v>
       </c>
       <c r="D67" s="57" t="s">
@@ -7187,19 +7213,19 @@
         <v>3</v>
       </c>
       <c r="G67" s="60"/>
-      <c r="H67" s="174" t="str">
+      <c r="H67" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4"),"Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Testing for Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="169"/>
-      <c r="J67" s="169"/>
+      <c r="I67" s="166"/>
+      <c r="J67" s="166"/>
       <c r="K67" s="62"/>
     </row>
     <row r="68" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="109" t="s">
+      <c r="C68" s="104" t="s">
         <v>361</v>
       </c>
       <c r="D68" s="57" t="s">
@@ -7212,19 +7238,19 @@
         <v>3</v>
       </c>
       <c r="G68" s="60"/>
-      <c r="H68" s="178" t="str">
+      <c r="H68" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
+      <c r="I68" s="166"/>
+      <c r="J68" s="166"/>
       <c r="K68" s="62"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="109" t="s">
+      <c r="C69" s="104" t="s">
         <v>362</v>
       </c>
       <c r="D69" s="57" t="s">
@@ -7237,19 +7263,19 @@
         <v>3</v>
       </c>
       <c r="G69" s="60"/>
-      <c r="H69" s="174" t="str">
+      <c r="H69" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I69" s="169"/>
-      <c r="J69" s="169"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="166"/>
       <c r="K69" s="62"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="109" t="s">
+      <c r="C70" s="104" t="s">
         <v>363</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -7262,19 +7288,19 @@
         <v>3</v>
       </c>
       <c r="G70" s="60"/>
-      <c r="H70" s="174" t="str">
+      <c r="H70" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7"),"Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6 and MSTG-CODE-7)</v>
       </c>
-      <c r="I70" s="169"/>
-      <c r="J70" s="169"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="166"/>
       <c r="K70" s="62"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="104" t="s">
         <v>364</v>
       </c>
       <c r="D71" s="57" t="s">
@@ -7287,20 +7313,20 @@
         <v>3</v>
       </c>
       <c r="G71" s="60"/>
-      <c r="H71" s="174" t="str">
+      <c r="H71" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="169"/>
-      <c r="J71" s="169"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="166"/>
       <c r="K71" s="76"/>
       <c r="L71" s="77"/>
     </row>
     <row r="72" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="109" t="s">
+      <c r="C72" s="104" t="s">
         <v>365</v>
       </c>
       <c r="D72" s="57" t="s">
@@ -7313,24 +7339,24 @@
         <v>3</v>
       </c>
       <c r="G72" s="60"/>
-      <c r="H72" s="174" t="str">
+      <c r="H72" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="169"/>
-      <c r="J72" s="169"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
       <c r="K72" s="62"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="78"/>
-      <c r="C73" s="112"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="79"/>
       <c r="E73" s="80"/>
       <c r="F73" s="80"/>
       <c r="G73" s="80"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="120"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="115"/>
       <c r="K73" s="81"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7340,9 +7366,9 @@
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
       <c r="K74" s="61"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7352,9 +7378,9 @@
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="118"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
       <c r="K75" s="61"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7364,9 +7390,9 @@
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
       <c r="K76" s="61"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7378,9 +7404,9 @@
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
       <c r="K77" s="61"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7394,9 +7420,9 @@
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="113"/>
       <c r="K78" s="61"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7410,9 +7436,9 @@
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
       <c r="K79" s="61"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
@@ -7426,9 +7452,9 @@
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
       <c r="K80" s="61"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -7442,9 +7468,9 @@
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
       <c r="K81" s="61"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -7454,9 +7480,9 @@
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="119"/>
-      <c r="J82" s="119"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
       <c r="K82" s="61"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -7466,9 +7492,9 @@
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="119"/>
-      <c r="J83" s="119"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
       <c r="K83" s="61"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -7478,9 +7504,9 @@
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="119"/>
-      <c r="J84" s="119"/>
+      <c r="H84" s="113"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
       <c r="K84" s="61"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -7490,9 +7516,9 @@
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
       <c r="K85" s="61"/>
     </row>
   </sheetData>
@@ -7547,7 +7573,7 @@
       <c r="D1" s="61"/>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="119"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="61"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7556,14 +7582,14 @@
       <c r="D2" s="61"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="119"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="102" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="50" t="s">
@@ -7576,7 +7602,7 @@
         <v>183</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>185</v>
@@ -7586,20 +7612,20 @@
       <c r="B4" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="66" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
-      <c r="G4" s="172"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="69"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="104" t="s">
         <v>367</v>
       </c>
       <c r="D5" s="72" t="s">
@@ -7611,17 +7637,17 @@
       <c r="F5" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="174" t="str">
+      <c r="G5" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1"),"Testing Root Detection (MSTG-RESILIENCE-1)")</f>
         <v>Testing Root Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="62"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="104" t="s">
         <v>368</v>
       </c>
       <c r="D6" s="72" t="s">
@@ -7633,17 +7659,17 @@
       <c r="F6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="175" t="str">
+      <c r="G6" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2"),"Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)")</f>
         <v>Testing Anti-Debugging Detection (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>369</v>
       </c>
       <c r="D7" s="72" t="s">
@@ -7655,17 +7681,17 @@
       <c r="F7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="174" t="str">
+      <c r="G7" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3"),"Testing File Integrity Checks (MSTG-RESILIENCE-3)")</f>
         <v>Testing File Integrity Checks (MSTG-RESILIENCE-3)</v>
       </c>
       <c r="H7" s="62"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="104" t="s">
         <v>370</v>
       </c>
       <c r="D8" s="72" t="s">
@@ -7677,17 +7703,17 @@
       <c r="F8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="174" t="str">
+      <c r="G8" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4"),"Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)")</f>
         <v>Testing Reverse Engineering Tools Detection (MSTG-RESILIENCE-4)</v>
       </c>
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="104" t="s">
         <v>371</v>
       </c>
       <c r="D9" s="72" t="s">
@@ -7699,17 +7725,17 @@
       <c r="F9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="174" t="str">
+      <c r="G9" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5"),"Testing Emulator Detection (MSTG-RESILIENCE-5)")</f>
         <v>Testing Emulator Detection (MSTG-RESILIENCE-5)</v>
       </c>
       <c r="H9" s="62"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="104" t="s">
         <v>372</v>
       </c>
       <c r="D10" s="72" t="s">
@@ -7721,17 +7747,17 @@
       <c r="F10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="174" t="str">
+      <c r="G10" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks-mstg-resilience-6"),"Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)")</f>
         <v>Testing Run Time Integrity Checks (MSTG-RESILIENCE-6)</v>
       </c>
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="104" t="s">
         <v>373</v>
       </c>
       <c r="D11" s="72" t="s">
@@ -7743,16 +7769,16 @@
       <c r="F11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="180" t="s">
-        <v>383</v>
+      <c r="G11" s="174" t="s">
+        <v>384</v>
       </c>
       <c r="H11" s="62"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="104" t="s">
         <v>374</v>
       </c>
       <c r="D12" s="72" t="s">
@@ -7764,16 +7790,16 @@
       <c r="F12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="181" t="s">
+      <c r="G12" s="175" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="62"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="104" t="s">
         <v>375</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -7785,7 +7811,7 @@
       <c r="F13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="174" t="str">
+      <c r="G13" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
@@ -7793,20 +7819,20 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
-      <c r="C14" s="111"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="66" t="s">
         <v>197</v>
       </c>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
-      <c r="G14" s="172"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="105" t="s">
         <v>376</v>
       </c>
       <c r="D15" s="72" t="s">
@@ -7818,7 +7844,7 @@
       <c r="F15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="174" t="str">
+      <c r="G15" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10"),"Testing Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Testing Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
@@ -7826,20 +7852,20 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
-      <c r="C16" s="111"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="66" t="s">
         <v>198</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
-      <c r="G16" s="172"/>
+      <c r="G16" s="169"/>
       <c r="H16" s="69"/>
     </row>
     <row r="17" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="104" t="s">
         <v>377</v>
       </c>
       <c r="D17" s="72" t="s">
@@ -7851,17 +7877,17 @@
       <c r="F17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="174" t="str">
+      <c r="G17" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9"),"Testing Obfuscation (MSTG-RESILIENCE-9)")</f>
         <v>Testing Obfuscation (MSTG-RESILIENCE-9)</v>
       </c>
       <c r="H17" s="62"/>
     </row>
     <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="104" t="s">
         <v>378</v>
       </c>
       <c r="D18" s="72" t="s">
@@ -7873,18 +7899,18 @@
       <c r="F18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="181" t="s">
-        <v>383</v>
+      <c r="G18" s="175" t="s">
+        <v>384</v>
       </c>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="78"/>
-      <c r="C19" s="112"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="79"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
-      <c r="G19" s="179"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7893,7 +7919,7 @@
       <c r="D20" s="61"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="118"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="61"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7902,7 +7928,7 @@
       <c r="D21" s="61"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="61"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7913,7 +7939,7 @@
       <c r="D22" s="61"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="118"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="61"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7926,7 +7952,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="118"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7939,7 +7965,7 @@
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="118"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="61"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7952,7 +7978,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="118"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7965,7 +7991,7 @@
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="118"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="61"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7974,7 +8000,7 @@
       <c r="D27" s="61"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="119"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="61"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7983,7 +8009,7 @@
       <c r="D28" s="61"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="119"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="61"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -7992,7 +8018,7 @@
       <c r="D29" s="61"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="119"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="61"/>
     </row>
   </sheetData>
@@ -8039,18 +8065,18 @@
       <c r="C1" s="90"/>
       <c r="H1" s="91"/>
       <c r="I1" s="48"/>
-      <c r="J1" s="121"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="102" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="50" t="s">
@@ -8065,11 +8091,11 @@
       <c r="G3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="162" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="165"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
       <c r="K3" s="52" t="s">
         <v>185</v>
       </c>
@@ -8078,7 +8104,7 @@
       <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="54" t="s">
         <v>186</v>
       </c>
@@ -8087,14 +8113,14 @@
       <c r="G4" s="55"/>
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
-      <c r="J4" s="182"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="104" t="s">
         <v>304</v>
       </c>
       <c r="D5" s="57" t="s">
@@ -8107,22 +8133,22 @@
         <v>3</v>
       </c>
       <c r="G5" s="60"/>
-      <c r="H5" s="168" t="str">
+      <c r="H5" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="104" t="s">
         <v>305</v>
       </c>
       <c r="D6" s="57" t="s">
@@ -8135,25 +8161,25 @@
         <v>3</v>
       </c>
       <c r="G6" s="60"/>
-      <c r="H6" s="168" t="str">
+      <c r="H6" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),
 "Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I6" s="174" t="str">
+      <c r="I6" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="J6" s="171"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>306</v>
       </c>
       <c r="D7" s="57" t="s">
@@ -8166,22 +8192,22 @@
         <v>3</v>
       </c>
       <c r="G7" s="60"/>
-      <c r="H7" s="168" t="str">
+      <c r="H7" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#architectural-information"),
 "Architectural Information")</f>
         <v>Architectural Information</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="62"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="104" t="s">
         <v>307</v>
       </c>
       <c r="D8" s="57" t="s">
@@ -8194,22 +8220,22 @@
         <v>3</v>
       </c>
       <c r="G8" s="60"/>
-      <c r="H8" s="168" t="str">
+      <c r="H8" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#identifying-sensitive-data"),
 "Identifying Sensitive Data")</f>
         <v>Identifying Sensitive Data</v>
       </c>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="62"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="104" t="s">
         <v>308</v>
       </c>
       <c r="D9" s="57" t="s">
@@ -8222,22 +8248,22 @@
       <c r="G9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="168" t="str">
+      <c r="H9" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#environmental-information"),
 "Environmental Information")</f>
         <v>Environmental Information</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
       <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="104" t="s">
         <v>309</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -8250,22 +8276,22 @@
       <c r="G10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="168" t="str">
+      <c r="H10" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#mapping-the-application"),
 "Mapping the Application")</f>
         <v>Mapping the Application</v>
       </c>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
       <c r="K10" s="62"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D11" s="57" t="s">
@@ -8278,28 +8304,28 @@
       <c r="G11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="168" t="str">
+      <c r="H11" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#principles-of-testing"),
 "Principles of Testing")</f>
         <v>Principles of Testing</v>
       </c>
-      <c r="I11" s="170" t="str">
+      <c r="I11" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#penetration-testing-aka-pentesting"),
 "Penetration Testing (a.k.a. Pentesting)")</f>
         <v>Penetration Testing (a.k.a. Pentesting)</v>
       </c>
-      <c r="J11" s="170"/>
+      <c r="J11" s="167"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="104" t="s">
         <v>311</v>
       </c>
       <c r="D12" s="57" t="s">
@@ -8312,22 +8338,22 @@
       <c r="G12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="168" t="str">
+      <c r="H12" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptographic-policy"),
 "Cryptographic policy")</f>
         <v>Cryptographic policy</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="104" t="s">
         <v>312</v>
       </c>
       <c r="D13" s="57" t="s">
@@ -8340,22 +8366,22 @@
       <c r="G13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="168" t="str">
+      <c r="H13" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9"),
 "Testing enforced updating (MSTG-ARCH-9)")</f>
         <v>Testing enforced updating (MSTG-ARCH-9)</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="105" t="s">
         <v>313</v>
       </c>
       <c r="D14" s="57" t="s">
@@ -8368,38 +8394,38 @@
       <c r="G14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="168" t="str">
+      <c r="H14" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04b-Mobile-App-Security-Testing.md#security-testing-and-the-sdlc"),
 "Security Testing and the SDLC")</f>
         <v>Security Testing and the SDLC</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
       <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="111"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="66" t="s">
         <v>187</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="104" t="s">
         <v>314</v>
       </c>
       <c r="D16" s="57" t="s">
@@ -8412,19 +8438,19 @@
         <v>3</v>
       </c>
       <c r="G16" s="60"/>
-      <c r="H16" s="174" t="str">
+      <c r="H16" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="104" t="s">
         <v>315</v>
       </c>
       <c r="D17" s="57" t="s">
@@ -8433,19 +8459,19 @@
       <c r="E17" s="58"/>
       <c r="F17" s="59"/>
       <c r="G17" s="60"/>
-      <c r="H17" s="174" t="str">
+      <c r="H17" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
         <v>Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
       <c r="K17" s="62"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="104" t="s">
         <v>316</v>
       </c>
       <c r="D18" s="57" t="s">
@@ -8458,19 +8484,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="60"/>
-      <c r="H18" s="174" t="str">
+      <c r="H18" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3"),"Checking Logs for Sensitive Data (MSTG-STORAGE-3)")</f>
         <v>Checking Logs for Sensitive Data (MSTG-STORAGE-3)</v>
       </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
       <c r="K18" s="62"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="104" t="s">
         <v>317</v>
       </c>
       <c r="D19" s="57" t="s">
@@ -8483,19 +8509,19 @@
         <v>3</v>
       </c>
       <c r="G19" s="60"/>
-      <c r="H19" s="174" t="str">
+      <c r="H19" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties-mstg-storage-4"),"Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)")</f>
         <v>Determining Whether Sensitive Data Is Sent to Third Parties (MSTG-STORAGE-4)</v>
       </c>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
       <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="104" t="s">
         <v>318</v>
       </c>
       <c r="D20" s="57" t="s">
@@ -8508,19 +8534,19 @@
         <v>3</v>
       </c>
       <c r="G20" s="60"/>
-      <c r="H20" s="174" t="str">
+      <c r="H20" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5"),"Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)")</f>
         <v>Finding Sensitive Data in the Keyboard Cache (MSTG-STORAGE-5)</v>
       </c>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
       <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="104" t="s">
         <v>319</v>
       </c>
       <c r="D21" s="57" t="s">
@@ -8533,19 +8559,19 @@
         <v>3</v>
       </c>
       <c r="G21" s="60"/>
-      <c r="H21" s="175" t="str">
+      <c r="H21" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)")</f>
         <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms (MSTG-STORAGE-6)</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
       <c r="K21" s="62"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="104" t="s">
         <v>320</v>
       </c>
       <c r="D22" s="57" t="s">
@@ -8558,19 +8584,19 @@
         <v>3</v>
       </c>
       <c r="G22" s="60"/>
-      <c r="H22" s="174" t="str">
+      <c r="H22" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7"),"Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)")</f>
         <v>Checking for Sensitive Data Disclosed Through the User Interface (MSTG-STORAGE-7)</v>
       </c>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
       <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="104" t="s">
         <v>321</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -8583,19 +8609,19 @@
       <c r="G23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="174" t="str">
+      <c r="H23" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8"),"Testing Backups for Sensitive Data (MSTG-STORAGE-8)")</f>
         <v>Testing Backups for Sensitive Data (MSTG-STORAGE-8)</v>
       </c>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
       <c r="K23" s="62"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="104" t="s">
         <v>322</v>
       </c>
       <c r="D24" s="57" t="s">
@@ -8608,19 +8634,19 @@
       <c r="G24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="174" t="str">
+      <c r="H24" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9"),"Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)")</f>
         <v>Testing Auto-Generated Screenshots for Sensitive Information (MSTG-STORAGE-9)</v>
       </c>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
       <c r="K24" s="62"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="104" t="s">
         <v>323</v>
       </c>
       <c r="D25" s="57" t="s">
@@ -8633,19 +8659,19 @@
       <c r="G25" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="174" t="str">
+      <c r="H25" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10"),"Testing Memory for Sensitive Data (MSTG-STORAGE-10)")</f>
         <v>Testing Memory for Sensitive Data (MSTG-STORAGE-10)</v>
       </c>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
       <c r="K25" s="62"/>
     </row>
     <row r="26" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="104" t="s">
         <v>324</v>
       </c>
       <c r="D26" s="57" t="s">
@@ -8658,20 +8684,20 @@
       <c r="G26" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="174" t="str">
+      <c r="H26" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
       <c r="K26" s="62"/>
       <c r="L26" s="93"/>
     </row>
     <row r="27" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="104" t="s">
         <v>325</v>
       </c>
       <c r="D27" s="57" t="s">
@@ -8684,12 +8710,12 @@
       <c r="G27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="178" t="str">
+      <c r="H27" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education-mstg-storage-12"),"Testing User Education (MSTG-STORAGE-12)")</f>
         <v>Testing User Education (MSTG-STORAGE-12)</v>
       </c>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
       <c r="K27" s="62"/>
       <c r="L27" s="46"/>
     </row>
@@ -8697,23 +8723,23 @@
       <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="111"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="66" t="s">
         <v>189</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="104" t="s">
         <v>326</v>
       </c>
       <c r="D29" s="57" t="s">
@@ -8726,19 +8752,19 @@
         <v>3</v>
       </c>
       <c r="G29" s="60"/>
-      <c r="H29" s="174" t="str">
+      <c r="H29" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
       <c r="K29" s="62"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="104" t="s">
         <v>327</v>
       </c>
       <c r="D30" s="57" t="s">
@@ -8751,19 +8777,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="60"/>
-      <c r="H30" s="175" t="str">
+      <c r="H30" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
       <c r="K30" s="62"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="104" t="s">
         <v>328</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -8776,19 +8802,19 @@
         <v>3</v>
       </c>
       <c r="G31" s="60"/>
-      <c r="H31" s="175" t="str">
+      <c r="H31" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3"),"Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms (MSTG-CRYPTO-2 and MSTG-CRYPTO-3)</v>
       </c>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
       <c r="K31" s="62"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="104" t="s">
         <v>329</v>
       </c>
       <c r="D32" s="57" t="s">
@@ -8801,19 +8827,19 @@
         <v>3</v>
       </c>
       <c r="G32" s="60"/>
-      <c r="H32" s="174" t="str">
+      <c r="H32" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)")</f>
         <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms (MSTG-CRYPTO-4)</v>
       </c>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
       <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="104" t="s">
         <v>331</v>
       </c>
       <c r="D33" s="57" t="s">
@@ -8826,19 +8852,19 @@
         <v>3</v>
       </c>
       <c r="G33" s="60"/>
-      <c r="H33" s="174" t="str">
+      <c r="H33" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5"),"Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)")</f>
         <v>Testing Key Management (MSTG-CRYPTO-1 and MSTG-CRYPTO-5)</v>
       </c>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
       <c r="K33" s="62"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="104" t="s">
         <v>330</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -8851,35 +8877,35 @@
         <v>3</v>
       </c>
       <c r="G34" s="60"/>
-      <c r="H34" s="174" t="str">
+      <c r="H34" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6")," Testing Random Number Generation (MSTG-CRYPTO-6)")</f>
         <v xml:space="preserve"> Testing Random Number Generation (MSTG-CRYPTO-6)</v>
       </c>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
       <c r="K34" s="62"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="111"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="66" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="68"/>
       <c r="G35" s="67"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
       <c r="K35" s="69"/>
     </row>
     <row r="36" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="104" t="s">
         <v>332</v>
       </c>
       <c r="D36" s="72" t="s">
@@ -8892,22 +8918,22 @@
         <v>3</v>
       </c>
       <c r="G36" s="60"/>
-      <c r="H36" s="174" t="str">
+      <c r="H36" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)")</f>
         <v>Verifying that Appropriate Authentication is in Place (MSTG-ARCH-2 and MSTG-AUTH-1)</v>
       </c>
-      <c r="I36" s="174" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+      <c r="I36" s="171" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J36" s="174"/>
+      <c r="J36" s="171"/>
       <c r="K36" s="62"/>
     </row>
     <row r="37" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="104" t="s">
         <v>333</v>
       </c>
       <c r="D37" s="72" t="s">
@@ -8920,19 +8946,19 @@
         <v>3</v>
       </c>
       <c r="G37" s="60"/>
-      <c r="H37" s="174" t="str">
+      <c r="H37" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2"),"Testing Stateful Session Management (MSTG-AUTH-2)")</f>
         <v>Testing Stateful Session Management (MSTG-AUTH-2)</v>
       </c>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
       <c r="K37" s="62"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="104" t="s">
         <v>334</v>
       </c>
       <c r="D38" s="72" t="s">
@@ -8945,22 +8971,22 @@
         <v>3</v>
       </c>
       <c r="G38" s="60"/>
-      <c r="H38" s="174" t="str">
+      <c r="H38" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3"),"Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)")</f>
         <v>Testing Stateless (Token-Based) Authentication (MSTG-AUTH-3)</v>
       </c>
-      <c r="I38" s="174" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
+      <c r="I38" s="171" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-oauth-20-flows-mstg-auth-1-and-mstg-auth-3"),"Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)")</f>
         <v>Testing OAuth 2.0 Flows (MSTG-AUTH-1 and MSTG-AUTH-3)</v>
       </c>
-      <c r="J38" s="174"/>
+      <c r="J38" s="171"/>
       <c r="K38" s="62"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="104" t="s">
         <v>335</v>
       </c>
       <c r="D39" s="72" t="s">
@@ -8969,20 +8995,20 @@
       <c r="E39" s="58"/>
       <c r="F39" s="59"/>
       <c r="G39" s="60"/>
-      <c r="H39" s="174" t="str">
+      <c r="H39" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
         <v>Testing User Logout (MSTG-AUTH-4)</v>
       </c>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
       <c r="K39" s="62"/>
       <c r="M39" s="73"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="104" t="s">
         <v>336</v>
       </c>
       <c r="D40" s="72" t="s">
@@ -8995,20 +9021,20 @@
         <v>3</v>
       </c>
       <c r="G40" s="60"/>
-      <c r="H40" s="174" t="str">
+      <c r="H40" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
       <c r="K40" s="62"/>
       <c r="M40" s="73"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="104" t="s">
         <v>337</v>
       </c>
       <c r="D41" s="72" t="s">
@@ -9021,22 +9047,22 @@
         <v>3</v>
       </c>
       <c r="G41" s="60"/>
-      <c r="H41" s="174" t="str">
+      <c r="H41" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6"),"Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)")</f>
         <v>Testing Best Practices for Passwords (MSTG-AUTH-5 and MSTG-AUTH-6)</v>
       </c>
-      <c r="I41" s="174" t="str">
+      <c r="I41" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#dynamic-testing-mstg-auth-6"),"Dynamic Testing (MSTG-AUTH-6)")</f>
         <v>Dynamic Testing (MSTG-AUTH-6)</v>
       </c>
-      <c r="J41" s="174"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="62"/>
     </row>
     <row r="42" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="104" t="s">
         <v>338</v>
       </c>
       <c r="D42" s="72" t="s">
@@ -9049,19 +9075,19 @@
         <v>3</v>
       </c>
       <c r="G42" s="60"/>
-      <c r="H42" s="174" t="str">
+      <c r="H42" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7"),"Testing Session Timeout (MSTG-AUTH-7)")</f>
         <v>Testing Session Timeout (MSTG-AUTH-7)</v>
       </c>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
       <c r="K42" s="74"/>
     </row>
     <row r="43" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="104" t="s">
         <v>339</v>
       </c>
       <c r="D43" s="72" t="s">
@@ -9074,19 +9100,19 @@
       <c r="G43" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="174" t="str">
+      <c r="H43" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11"),"Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)")</f>
         <v>Testing Local Authentication (MSTG-AUTH-8 and MSTG-STORAGE-11)</v>
       </c>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
       <c r="K43" s="62"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="104" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="72" t="s">
@@ -9099,19 +9125,19 @@
       <c r="G44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="175" t="str">
+      <c r="H44" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
       <c r="K44" s="62"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="104" t="s">
         <v>341</v>
       </c>
       <c r="D45" s="72" t="s">
@@ -9124,19 +9150,19 @@
       <c r="G45" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="175" t="str">
+      <c r="H45" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10"),"Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)")</f>
         <v>Testing Two-Factor Authentication and Step-up Authentication (MSTG-AUTH-9 and MSTG-AUTH-10)</v>
       </c>
-      <c r="I45" s="169"/>
-      <c r="J45" s="169"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="62"/>
     </row>
     <row r="46" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="104" t="s">
         <v>342</v>
       </c>
       <c r="D46" s="72" t="s">
@@ -9149,38 +9175,38 @@
       <c r="G46" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="178" t="str">
+      <c r="H46" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11"),
 "Testing Login Activity and Device Blocking (MSTG-AUTH-11)")</f>
         <v>Testing Login Activity and Device Blocking (MSTG-AUTH-11)</v>
       </c>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="62"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="111"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="66" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="67"/>
       <c r="F47" s="68"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="172"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="104" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="72" t="s">
@@ -9193,19 +9219,19 @@
         <v>3</v>
       </c>
       <c r="G48" s="60"/>
-      <c r="H48" s="175" t="str">
+      <c r="H48" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
       <c r="K48" s="75"/>
     </row>
     <row r="49" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="104" t="s">
         <v>344</v>
       </c>
       <c r="D49" s="72" t="s">
@@ -9218,22 +9244,22 @@
         <v>3</v>
       </c>
       <c r="G49" s="60"/>
-      <c r="H49" s="175" t="str">
+      <c r="H49" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1-and-mstg-network-2"),"Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)")</f>
         <v>Verifying Data Encryption on the Network (MSTG-NETWORK-1 and MSTG-NETWORK-2)</v>
       </c>
-      <c r="I49" s="170" t="str">
+      <c r="I49" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security-mstg-network-2"),"App Transport Security (MSTG-NETWORK-2)")</f>
         <v>App Transport Security (MSTG-NETWORK-2)</v>
       </c>
-      <c r="J49" s="170"/>
+      <c r="J49" s="167"/>
       <c r="K49" s="75"/>
     </row>
     <row r="50" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="104" t="s">
         <v>345</v>
       </c>
       <c r="D50" s="72" t="s">
@@ -9246,19 +9272,19 @@
         <v>3</v>
       </c>
       <c r="G50" s="60"/>
-      <c r="H50" s="174" t="str">
+      <c r="H50" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
       <c r="K50" s="75"/>
     </row>
     <row r="51" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="109" t="s">
+      <c r="C51" s="104" t="s">
         <v>346</v>
       </c>
       <c r="D51" s="72" t="s">
@@ -9271,19 +9297,19 @@
       <c r="G51" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="174" t="str">
+      <c r="H51" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-3-and-mstg-network-4"),"Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)")</f>
         <v>Testing Custom Certificate Stores and Certificate Pinning (MSTG-NETWORK-3 and MSTG-NETWORK-4)</v>
       </c>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="166"/>
       <c r="K51" s="62"/>
     </row>
     <row r="52" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="104" t="s">
         <v>347</v>
       </c>
       <c r="D52" s="72" t="s">
@@ -9296,19 +9322,19 @@
       <c r="G52" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="175" t="str">
+      <c r="H52" s="167" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5"),"Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)")</f>
         <v>Making Sure that Critical Operations Use Secure Communication Channels (MSTG-NETWORK-5)</v>
       </c>
-      <c r="I52" s="169"/>
-      <c r="J52" s="169"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
       <c r="K52" s="62"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="104" t="s">
         <v>348</v>
       </c>
       <c r="D53" s="72" t="s">
@@ -9321,38 +9347,38 @@
       <c r="G53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="174" t="str">
+      <c r="H53" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),
 "Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I53" s="169"/>
-      <c r="J53" s="169"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
       <c r="K53" s="62"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="111"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="66" t="s">
         <v>192</v>
       </c>
       <c r="E54" s="67"/>
       <c r="F54" s="68"/>
       <c r="G54" s="67"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="172"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="169"/>
       <c r="K54" s="69"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="109" t="s">
+      <c r="C55" s="104" t="s">
         <v>349</v>
       </c>
       <c r="D55" s="72" t="s">
@@ -9365,19 +9391,19 @@
         <v>3</v>
       </c>
       <c r="G55" s="60"/>
-      <c r="H55" s="174" t="str">
+      <c r="H55" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1"),"Testing App Permissions (MSTG-PLATFORM-1)")</f>
         <v>Testing App Permissions (MSTG-PLATFORM-1)</v>
       </c>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
       <c r="K55" s="62"/>
     </row>
     <row r="56" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="104" t="s">
         <v>350</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -9390,19 +9416,19 @@
         <v>3</v>
       </c>
       <c r="G56" s="60"/>
-      <c r="H56" s="174" t="str">
+      <c r="H56" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2"),"Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)")</f>
         <v>Injection Flaws (MSTG-ARCH-2 and MSTG-PLATFORM-2)</v>
       </c>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
       <c r="K56" s="62"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="104" t="s">
         <v>351</v>
       </c>
       <c r="D57" s="72" t="s">
@@ -9415,19 +9441,19 @@
         <v>3</v>
       </c>
       <c r="G57" s="60"/>
-      <c r="H57" s="174" t="str">
+      <c r="H57" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3"),"Testing Custom URL Schemes (MSTG-PLATFORM-3)")</f>
         <v>Testing Custom URL Schemes (MSTG-PLATFORM-3)</v>
       </c>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
       <c r="K57" s="62"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="109" t="s">
+      <c r="C58" s="104" t="s">
         <v>352</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -9440,22 +9466,22 @@
         <v>3</v>
       </c>
       <c r="G58" s="60"/>
-      <c r="H58" s="168" t="str">
+      <c r="H58" s="165" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4"),
 "Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)")</f>
         <v>Testing for Sensitive Functionality Exposure Through IPC (MSTG-PLATFORM-4)</v>
       </c>
-      <c r="I58" s="169"/>
-      <c r="J58" s="169"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
       <c r="K58" s="62"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="104" t="s">
         <v>353</v>
       </c>
       <c r="D59" s="72" t="s">
@@ -9468,19 +9494,19 @@
         <v>3</v>
       </c>
       <c r="G59" s="60"/>
-      <c r="H59" s="174" t="str">
+      <c r="H59" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5"),"Testing iOS WebViews (MSTG-PLATFORM-5)")</f>
         <v>Testing iOS WebViews (MSTG-PLATFORM-5)</v>
       </c>
-      <c r="I59" s="169"/>
-      <c r="J59" s="169"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
       <c r="K59" s="62"/>
     </row>
     <row r="60" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="109" t="s">
+      <c r="C60" s="104" t="s">
         <v>354</v>
       </c>
       <c r="D60" s="72" t="s">
@@ -9493,19 +9519,19 @@
         <v>3</v>
       </c>
       <c r="G60" s="60"/>
-      <c r="H60" s="174" t="str">
+      <c r="H60" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6"),"Testing WebView Protocol Handlers (MSTG-PLATFORM-6)")</f>
         <v>Testing WebView Protocol Handlers (MSTG-PLATFORM-6)</v>
       </c>
-      <c r="I60" s="169"/>
-      <c r="J60" s="169"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
       <c r="K60" s="62"/>
     </row>
     <row r="61" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="104" t="s">
         <v>355</v>
       </c>
       <c r="D61" s="72" t="s">
@@ -9518,19 +9544,19 @@
         <v>3</v>
       </c>
       <c r="G61" s="60"/>
-      <c r="H61" s="174" t="str">
+      <c r="H61" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7"),"Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)")</f>
         <v>Determining Whether Native Methods Are Exposed Through WebViews (MSTG-PLATFORM-7)</v>
       </c>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="166"/>
       <c r="K61" s="62"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="109" t="s">
+      <c r="C62" s="104" t="s">
         <v>356</v>
       </c>
       <c r="D62" s="72" t="s">
@@ -9543,35 +9569,35 @@
         <v>3</v>
       </c>
       <c r="G62" s="60"/>
-      <c r="H62" s="174" t="str">
+      <c r="H62" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8"),"Testing Object Persistence (MSTG-PLATFORM-8)")</f>
         <v>Testing Object Persistence (MSTG-PLATFORM-8)</v>
       </c>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
       <c r="K62" s="62"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="111"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="66" t="s">
         <v>193</v>
       </c>
       <c r="E63" s="67"/>
       <c r="F63" s="68"/>
       <c r="G63" s="67"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="172"/>
-      <c r="J63" s="172"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
       <c r="K63" s="69"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="104" t="s">
         <v>357</v>
       </c>
       <c r="D64" s="57" t="s">
@@ -9584,19 +9610,19 @@
         <v>3</v>
       </c>
       <c r="G64" s="60"/>
-      <c r="H64" s="174" t="str">
+      <c r="H64" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1"),"Making Sure that the App Is Properly Signed (MSTG-CODE-1)")</f>
         <v>Making Sure that the App Is Properly Signed (MSTG-CODE-1)</v>
       </c>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="166"/>
       <c r="K64" s="62"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="109" t="s">
+      <c r="C65" s="104" t="s">
         <v>358</v>
       </c>
       <c r="D65" s="57" t="s">
@@ -9609,19 +9635,19 @@
         <v>3</v>
       </c>
       <c r="G65" s="60"/>
-      <c r="H65" s="174" t="str">
+      <c r="H65" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2"),"Determining Whether the App is Debuggable (MSTG-CODE-2)")</f>
         <v>Determining Whether the App is Debuggable (MSTG-CODE-2)</v>
       </c>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="166"/>
       <c r="K65" s="62"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="109" t="s">
+      <c r="C66" s="104" t="s">
         <v>359</v>
       </c>
       <c r="D66" s="57" t="s">
@@ -9634,19 +9660,19 @@
         <v>3</v>
       </c>
       <c r="G66" s="60"/>
-      <c r="H66" s="174" t="str">
+      <c r="H66" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3"),"Finding Debugging Symbols (MSTG-CODE-3)")</f>
         <v>Finding Debugging Symbols (MSTG-CODE-3)</v>
       </c>
-      <c r="I66" s="169"/>
-      <c r="J66" s="169"/>
+      <c r="I66" s="166"/>
+      <c r="J66" s="166"/>
       <c r="K66" s="62"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="109" t="s">
+      <c r="C67" s="104" t="s">
         <v>360</v>
       </c>
       <c r="D67" s="57" t="s">
@@ -9659,19 +9685,19 @@
         <v>3</v>
       </c>
       <c r="G67" s="60"/>
-      <c r="H67" s="174" t="str">
+      <c r="H67" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4"),"Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)")</f>
         <v>Finding Debugging Code and Verbose Error Logging (MSTG-CODE-4)</v>
       </c>
-      <c r="I67" s="169"/>
-      <c r="J67" s="169"/>
+      <c r="I67" s="166"/>
+      <c r="J67" s="166"/>
       <c r="K67" s="62"/>
     </row>
     <row r="68" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="109" t="s">
+      <c r="C68" s="104" t="s">
         <v>361</v>
       </c>
       <c r="D68" s="57" t="s">
@@ -9684,19 +9710,19 @@
         <v>3</v>
       </c>
       <c r="G68" s="60"/>
-      <c r="H68" s="178" t="str">
+      <c r="H68" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5"),"Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)")</f>
         <v>Checking for Weaknesses in Third Party Libraries (MSTG-CODE-5)</v>
       </c>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
+      <c r="I68" s="166"/>
+      <c r="J68" s="166"/>
       <c r="K68" s="62"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="109" t="s">
+      <c r="C69" s="104" t="s">
         <v>362</v>
       </c>
       <c r="D69" s="57" t="s">
@@ -9709,19 +9735,19 @@
         <v>3</v>
       </c>
       <c r="G69" s="60"/>
-      <c r="H69" s="174" t="str">
+      <c r="H69" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I69" s="169"/>
-      <c r="J69" s="169"/>
+      <c r="I69" s="166"/>
+      <c r="J69" s="166"/>
       <c r="K69" s="62"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="109" t="s">
+      <c r="C70" s="104" t="s">
         <v>363</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9734,19 +9760,19 @@
         <v>3</v>
       </c>
       <c r="G70" s="60"/>
-      <c r="H70" s="174" t="str">
+      <c r="H70" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6"),"Testing Exception Handling (MSTG-CODE-6)")</f>
         <v>Testing Exception Handling (MSTG-CODE-6)</v>
       </c>
-      <c r="I70" s="169"/>
-      <c r="J70" s="169"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="166"/>
       <c r="K70" s="62"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="104" t="s">
         <v>364</v>
       </c>
       <c r="D71" s="57" t="s">
@@ -9759,19 +9785,19 @@
         <v>3</v>
       </c>
       <c r="G71" s="60"/>
-      <c r="H71" s="174" t="str">
+      <c r="H71" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8"),"Memory Corruption Bugs (MSTG-CODE-8)")</f>
         <v>Memory Corruption Bugs (MSTG-CODE-8)</v>
       </c>
-      <c r="I71" s="169"/>
-      <c r="J71" s="169"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="166"/>
       <c r="K71" s="62"/>
     </row>
     <row r="72" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="109" t="s">
+      <c r="C72" s="104" t="s">
         <v>365</v>
       </c>
       <c r="D72" s="57" t="s">
@@ -9784,24 +9810,24 @@
         <v>3</v>
       </c>
       <c r="G72" s="60"/>
-      <c r="H72" s="174" t="str">
+      <c r="H72" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9"),"Make Sure That Free Security Features Are Activated (MSTG-CODE-9)")</f>
         <v>Make Sure That Free Security Features Are Activated (MSTG-CODE-9)</v>
       </c>
-      <c r="I72" s="169"/>
-      <c r="J72" s="169"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
       <c r="K72" s="62"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="78"/>
-      <c r="C73" s="112"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="79"/>
       <c r="E73" s="80"/>
       <c r="F73" s="80"/>
       <c r="G73" s="80"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="120"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="115"/>
       <c r="K73" s="94"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9811,9 +9837,9 @@
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="28"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="118"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
       <c r="K74" s="96"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9823,9 +9849,9 @@
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
-      <c r="H75" s="118"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="118"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
       <c r="K75" s="96"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9835,9 +9861,9 @@
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
-      <c r="H76" s="118"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="118"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
       <c r="K76" s="96"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9849,9 +9875,9 @@
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
       <c r="K77" s="96"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9865,9 +9891,9 @@
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="28"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="113"/>
       <c r="K78" s="96"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9881,9 +9907,9 @@
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
       <c r="K79" s="96"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9897,9 +9923,9 @@
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
       <c r="K80" s="96"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9913,9 +9939,9 @@
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
-      <c r="H81" s="118"/>
-      <c r="I81" s="118"/>
-      <c r="J81" s="118"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
       <c r="K81" s="96"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9925,9 +9951,9 @@
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
-      <c r="H82" s="118"/>
-      <c r="I82" s="119"/>
-      <c r="J82" s="119"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
       <c r="K82" s="96"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9937,9 +9963,9 @@
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="119"/>
-      <c r="J83" s="119"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="114"/>
       <c r="K83" s="96"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9949,9 +9975,9 @@
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="119"/>
-      <c r="J84" s="119"/>
+      <c r="H84" s="113"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
       <c r="K84" s="96"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -9961,9 +9987,9 @@
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
       <c r="K85" s="96"/>
     </row>
   </sheetData>
@@ -10024,18 +10050,18 @@
         <v>206</v>
       </c>
       <c r="C1" s="90"/>
-      <c r="G1" s="119"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="96"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="119"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="96"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="102" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="50" t="s">
@@ -10048,7 +10074,7 @@
         <v>183</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>207</v>
@@ -10058,20 +10084,20 @@
       <c r="B4" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="66" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
-      <c r="G4" s="172"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="69"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="104" t="s">
         <v>367</v>
       </c>
       <c r="D5" s="72" t="s">
@@ -10083,17 +10109,17 @@
       <c r="F5" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="174" t="str">
+      <c r="G5" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1"),"Jailbreak Detection (MSTG-RESILIENCE-1)")</f>
         <v>Jailbreak Detection (MSTG-RESILIENCE-1)</v>
       </c>
       <c r="H5" s="62"/>
     </row>
     <row r="6" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="104" t="s">
         <v>368</v>
       </c>
       <c r="D6" s="72" t="s">
@@ -10105,17 +10131,17 @@
       <c r="F6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="174" t="str">
+      <c r="G6" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks-mstg-resilience-2"),"Anti-Debugging Checks (MSTG-RESILIENCE-2)")</f>
         <v>Anti-Debugging Checks (MSTG-RESILIENCE-2)</v>
       </c>
       <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="104" t="s">
         <v>369</v>
       </c>
       <c r="D7" s="72" t="s">
@@ -10127,17 +10153,17 @@
       <c r="F7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="174" t="str">
+      <c r="G7" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H7" s="62"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="104" t="s">
         <v>370</v>
       </c>
       <c r="D8" s="72" t="s">
@@ -10149,16 +10175,16 @@
       <c r="F8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="176" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="104" t="s">
         <v>371</v>
       </c>
       <c r="D9" s="72" t="s">
@@ -10170,16 +10196,16 @@
       <c r="F9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="176" t="s">
         <v>79</v>
       </c>
       <c r="H9" s="62"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="104" t="s">
         <v>372</v>
       </c>
       <c r="D10" s="72" t="s">
@@ -10191,16 +10217,16 @@
       <c r="F10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="176" t="s">
         <v>79</v>
       </c>
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="104" t="s">
         <v>373</v>
       </c>
       <c r="D11" s="72" t="s">
@@ -10212,16 +10238,16 @@
       <c r="F11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="181" t="s">
+      <c r="G11" s="175" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="62"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="104" t="s">
         <v>374</v>
       </c>
       <c r="D12" s="72" t="s">
@@ -10233,16 +10259,16 @@
       <c r="F12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="181" t="s">
+      <c r="G12" s="175" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="62"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="104" t="s">
         <v>375</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -10254,27 +10280,27 @@
       <c r="F13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="183" t="s">
+      <c r="G13" s="176" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="62"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
-      <c r="C14" s="111"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="66" t="s">
         <v>197</v>
       </c>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
-      <c r="G14" s="172"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="105" t="s">
         <v>376</v>
       </c>
       <c r="D15" s="72" t="s">
@@ -10286,7 +10312,7 @@
       <c r="F15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="174" t="str">
+      <c r="G15" s="171" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10"),"Device Binding (MSTG-RESILIENCE-10)")</f>
         <v>Device Binding (MSTG-RESILIENCE-10)</v>
       </c>
@@ -10294,20 +10320,20 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
-      <c r="C16" s="111"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="66" t="s">
         <v>198</v>
       </c>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
-      <c r="G16" s="172"/>
+      <c r="G16" s="169"/>
       <c r="H16" s="69"/>
     </row>
     <row r="17" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="104" t="s">
         <v>377</v>
       </c>
       <c r="D17" s="72" t="s">
@@ -10319,17 +10345,17 @@
       <c r="F17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="178" t="str">
+      <c r="G17" s="173" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11"),"File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)")</f>
         <v>File Integrity Checks (MSTG-RESILIENCE-3 and MSTG-RESILIENCE-11)</v>
       </c>
       <c r="H17" s="62"/>
     </row>
     <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="104" t="s">
         <v>378</v>
       </c>
       <c r="D18" s="72" t="s">
@@ -10341,18 +10367,18 @@
       <c r="F18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="181" t="s">
+      <c r="G18" s="175" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="78"/>
-      <c r="C19" s="112"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="79"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
-      <c r="G19" s="179"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10361,7 +10387,7 @@
       <c r="D20" s="96"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="118"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="96"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10370,7 +10396,7 @@
       <c r="D21" s="96"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="113"/>
       <c r="H21" s="96"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10381,7 +10407,7 @@
       <c r="D22" s="96"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="118"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="96"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10394,7 +10420,7 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="118"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="96"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10407,7 +10433,7 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="118"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="96"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10420,7 +10446,7 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="118"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="96"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10433,7 +10459,7 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="118"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="96"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10442,7 +10468,7 @@
       <c r="D27" s="96"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="119"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="96"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10451,7 +10477,7 @@
       <c r="D28" s="96"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="119"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="96"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10460,7 +10486,7 @@
       <c r="D29" s="96"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="119"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="96"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -10555,10 +10581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10852,7 +10878,7 @@
       <c r="B20" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="100" t="s">
         <v>212</v>
       </c>
       <c r="D20" s="14">
@@ -10869,7 +10895,7 @@
       <c r="B21" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="100" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="14">
@@ -10886,7 +10912,7 @@
       <c r="B22" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="100" t="s">
         <v>212</v>
       </c>
       <c r="D22" s="14">
@@ -10903,7 +10929,7 @@
       <c r="B23" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="100" t="s">
         <v>212</v>
       </c>
       <c r="D23" s="14">
@@ -10920,7 +10946,7 @@
       <c r="B24" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="100" t="s">
         <v>212</v>
       </c>
       <c r="D24" s="14">
@@ -10934,16 +10960,16 @@
       <c r="A25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="108" t="s">
         <v>380</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="109">
         <v>43685</v>
       </c>
-      <c r="E25" s="115" t="s">
+      <c r="E25" s="110" t="s">
         <v>381</v>
       </c>
     </row>
@@ -10970,135 +10996,135 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="19" customWidth="1"/>
-    <col min="2" max="4" width="11.08203125" style="19"/>
-    <col min="5" max="5" width="77.4140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.08203125" style="19"/>
+    <col min="1" max="1" width="30.5" style="179" customWidth="1"/>
+    <col min="2" max="4" width="11.08203125" style="179"/>
+    <col min="5" max="5" width="77.4140625" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.08203125" style="179"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="178"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="180" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="182" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="183">
         <v>43402</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="181" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="183">
         <v>43590</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="181" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="183">
         <v>43643</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="181" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="183">
         <v>43673</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="181" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="183">
         <v>43679</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="181" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="185" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="187">
         <v>43685</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="188" t="s">
         <v>381</v>
       </c>
     </row>
